--- a/BMP_Reading/Histogram.xlsx
+++ b/BMP_Reading/Histogram.xlsx
@@ -874,14 +874,14 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>RED</c:v>
+                  <c:v>BLUE</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="FF0000"/>
+              <a:schemeClr val="accent1"/>
             </a:solidFill>
           </c:spPr>
           <c:cat>
@@ -4020,14 +4020,14 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>BLUE</c:v>
+                  <c:v>RED</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="00B0F0"/>
+              <a:srgbClr val="C00000"/>
             </a:solidFill>
           </c:spPr>
           <c:cat>
@@ -5971,7 +5971,7 @@
   <dimension ref="A2:D258"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5981,10 +5981,10 @@
         <v>257</v>
       </c>
       <c r="C2" t="s">
-        <v>0</v>
+        <v>258</v>
       </c>
       <c r="D2" t="s">
-        <v>258</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
